--- a/others/量化投资/THS/trades.xlsx
+++ b/others/量化投资/THS/trades.xlsx
@@ -7,6 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TodayTrades" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positions" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1068,7 +1070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1112,6 +1114,26 @@
           <t>行业</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码_x</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码_y</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1141,6 +1163,10 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1170,6 +1196,10 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1199,6 +1229,10 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1228,6 +1262,10 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1257,6 +1295,10 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1290,6 +1332,10 @@
           <t>军工电子</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1319,6 +1365,10 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1352,6 +1402,10 @@
           <t>饮料制造</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1383,6 +1437,1181 @@
       <c r="G10" t="inlineStr">
         <is>
           <t>饮料制造</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光环新网</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="E11" t="n">
+        <v>883300</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>通信服务</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>300383</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>策略名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>价格</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持仓比例</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>持仓日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TMT资金流入战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>北斗星通</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>002151</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>军工电子</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>29.667415</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>28.47%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.18%</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2024-12-12 16:06:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TMT资金流入战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>粤传媒</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>文化传媒</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>5.501375</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>38.88%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>31.24%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2024-12-12 16:06:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TMT资金流入战法</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>网宿科技</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>300017</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>IT服务</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>9.622405000000001</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>29.99%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1.95%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2024-12-12 16:06:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>光环新网</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>300383</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>通信服务</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>11.7329325</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>32.81%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-0.37%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1734053460000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>豆神教育</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>300010</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>教育</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>10.0525125</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>26.52%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-3.51%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1734053460000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>东方财富</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>300059</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>证券</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>10.662665</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>37.42%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>158.62%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1734053460000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>低价小盘股战法</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3.96099</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>27.83%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>22.95%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2024-12-12 15:52:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>主力控盘低价股战法</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>新大洲A</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>000571</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>煤炭开采加工</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2.4306075</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>28.50%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>60.45%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2024-12-12 16:03:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>主力控盘低价股战法</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>庄园牧场</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>饮料制造</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>9.28232</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>36.49%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2.88%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2024-12-12 16:03:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>主力控盘低价股战法</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>赛福天</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>603028</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>7.6319075</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>31.63%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-0.42%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2024-12-12 16:03:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>均线粘合平台突破</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>燕京啤酒</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>饮料制造</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>10.7926975</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>22.09%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3.77%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024-12-12 15:41:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>均线粘合平台突破</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>中国神华</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>601088</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>煤炭开采加工</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>42.2405575</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>18.83%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2.06%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024-12-12 15:41:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>均线粘合平台突破</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>农业银行</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>601288</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>银行</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>4.88122</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>18.43%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3.05%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2024-12-12 15:41:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>均线粘合平台突破</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>新华文轩</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>601811</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>文化传媒</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>15.2738175</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>19.87%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-1.40%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2024-12-12 15:41:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>均线粘合平台突破</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>中国石油</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>601857</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>石油加工贸易</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>8.2920725</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>18.69%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1.90%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2024-12-12 15:41:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col width="9.53097345132743" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>策略名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>价格</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码_x</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码_y</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TMT资金流入战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华闻集团</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-637600</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20241211</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TMT资金流入战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>网宿科技</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>205800</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20241211</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光线传媒</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1026800</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>20241211</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>豆神教育</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="E5" t="n">
+        <v>860500</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>20241211</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TMT资金流入战法</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>电广传媒</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-222500</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20241212</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TMT资金流入战法</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>北斗星通</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="E7" t="n">
+        <v>64500</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>20241212</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>军工电子</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>主力控盘低价股战法</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>仁智股份</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-281800</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20241212</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>主力控盘低价股战法</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>庄园牧场</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>145800</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>20241212</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>饮料制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>均线粘合平台突破</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>燕京啤酒</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="E10" t="n">
+        <v>42900</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>20241212</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>饮料制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光环新网</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="E11" t="n">
+        <v>883300</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>20241213</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>通信服务</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>300383</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>创业板</t>
         </is>
       </c>
     </row>

--- a/others/量化投资/THS/trades.xlsx
+++ b/others/量化投资/THS/trades.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20520" windowHeight="9735" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20520" windowHeight="9735" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TodayTrades" sheetId="1" state="visible" r:id="rId1"/>
@@ -1498,735 +1498,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>策略名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>股票代码</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>行业</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>价格</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持仓比例</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>盈亏比例</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>持仓日期</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TMT资金流入战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>北斗星通</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>002151</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>军工电子</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>29.667415</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>28.47%</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.18%</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2024-12-12 16:06:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TMT资金流入战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>粤传媒</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>002181</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>文化传媒</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5.501375</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>38.88%</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>31.24%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2024-12-12 16:06:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TMT资金流入战法</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>网宿科技</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>300017</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>IT服务</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9.622405000000001</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>29.99%</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1.95%</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2024-12-12 16:06:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>光环新网</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>300383</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>通信服务</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>11.7329325</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>32.81%</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-0.37%</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1734053460000</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>豆神教育</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>300010</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>教育</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10.0525125</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>26.52%</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-3.51%</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1734053460000</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>东方财富</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>300059</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>证券</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10.662665</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>37.42%</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>158.62%</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1734053460000</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>低价小盘股战法</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>002494</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3.96099</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>27.83%</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>22.95%</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2024-12-12 15:52:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>主力控盘低价股战法</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>新大洲A</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>000571</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>煤炭开采加工</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2.4306075</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>28.50%</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>60.45%</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2024-12-12 16:03:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>主力控盘低价股战法</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>庄园牧场</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>002910</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>饮料制造</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9.28232</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>36.49%</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2.88%</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2024-12-12 16:03:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>主力控盘低价股战法</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>赛福天</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>603028</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>通用设备</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7.6319075</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>31.63%</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-0.42%</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2024-12-12 16:03:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>均线粘合平台突破</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>燕京啤酒</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>000729</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>饮料制造</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10.7926975</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>22.09%</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>3.77%</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2024-12-12 15:41:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>均线粘合平台突破</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>中国神华</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>601088</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>煤炭开采加工</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>42.2405575</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>18.83%</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2.06%</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2024-12-12 15:41:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>均线粘合平台突破</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>农业银行</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>601288</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>银行</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4.88122</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>18.43%</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>3.05%</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2024-12-12 15:41:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>均线粘合平台突破</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>新华文轩</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>601811</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>文化传媒</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>15.2738175</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>19.87%</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-1.40%</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2024-12-12 15:41:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>均线粘合平台突破</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>中国石油</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>601857</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>石油加工贸易</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8.2920725</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>18.69%</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>1.90%</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2024-12-12 15:41:00</t>
-        </is>
-      </c>
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
